--- a/Sources/Pythone_Scripts/sending_data/data.xlsx
+++ b/Sources/Pythone_Scripts/sending_data/data.xlsx
@@ -703,8 +703,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1024,13 +1025,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="18.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="27.1111111111111" customWidth="1"/>
@@ -1157,6 +1158,13 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Sources/Pythone_Scripts/sending_data/data.xlsx
+++ b/Sources/Pythone_Scripts/sending_data/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>number</t>
   </si>
@@ -90,6 +90,24 @@
   </si>
   <si>
     <t>2 3 1</t>
+  </si>
+  <si>
+    <t>0x6B676472</t>
+  </si>
+  <si>
+    <t>Faust jfi ijf</t>
+  </si>
+  <si>
+    <t>1 2 3 4 5 6 7 8 9 10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1 2 3</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -102,7 +120,14 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,139 +598,139 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1025,13 +1050,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="18.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="27.1111111111111" customWidth="1"/>
@@ -1159,11 +1184,38 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
